--- a/data/evaluation/evaluation_South_Spring_Watermelons.xlsx
+++ b/data/evaluation/evaluation_South_Spring_Watermelons.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5233.941176470588</v>
+        <v>5228.058823529412</v>
       </c>
       <c r="C3" t="n">
-        <v>62995748.91823728</v>
+        <v>62992807.74176669</v>
       </c>
       <c r="D3" t="n">
-        <v>7936.986135696426</v>
+        <v>7936.800850579954</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1995070422205065</v>
+        <v>0.1995444160289416</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5276.208855412628</v>
+        <v>5397.466583316253</v>
       </c>
       <c r="C4" t="n">
-        <v>62531093.326907</v>
+        <v>66991704.04913942</v>
       </c>
       <c r="D4" t="n">
-        <v>7907.660420561002</v>
+        <v>8184.846000331308</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2054114649004483</v>
+        <v>0.1487300612841952</v>
       </c>
     </row>
     <row r="5">
